--- a/Reports/Bug Reports.xlsx
+++ b/Reports/Bug Reports.xlsx
@@ -135,20 +135,20 @@
     <t>middle</t>
   </si>
   <si>
-    <t>Incorrect search by special characters</t>
+    <t>Incorrect search for a city by its full name with special characters</t>
   </si>
   <si>
     <t>It is not possible to search for ','. It is present in the title.</t>
   </si>
   <si>
     <t>1. Enter the app 
-2. Enter ',' in the search field</t>
-  </si>
-  <si>
-    <t>Ability to search by symbols</t>
-  </si>
-  <si>
-    <t>Inability to search by symbols</t>
+2. Enter 't Hofke, NL' in the search field</t>
+  </si>
+  <si>
+    <t>The resulting list contains data</t>
+  </si>
+  <si>
+    <t>The resulting list is empty</t>
   </si>
   <si>
     <t>The screen does not adapt when you rotate it</t>
@@ -172,13 +172,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,16 +195,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF080808"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="238"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,6 +223,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -224,145 +336,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,18 +352,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,169 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,17 +579,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,35 +629,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,174 +662,171 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -863,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -876,29 +851,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,90 +1026,6 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1270</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Изображение 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9464040" y="6949440"/>
-          <a:ext cx="2400300" cy="3110230"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>528955</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Изображение 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11932920" y="6949440"/>
-          <a:ext cx="2380615" cy="3115310"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1155,7 +1043,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1164,6 +1052,90 @@
         <a:xfrm>
           <a:off x="9464040" y="10424160"/>
           <a:ext cx="5379720" cy="3093720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Изображение 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9464040" y="6949440"/>
+          <a:ext cx="1478915" cy="3133090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296545</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585470</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Изображение 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10995025" y="6942455"/>
+          <a:ext cx="1523365" cy="3139440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1439,8 +1411,8 @@
   <sheetPr/>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1524,7 +1496,7 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1535,7 +1507,7 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1600,370 +1572,370 @@
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>44781</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>44781</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="28.8" spans="1:3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="15"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="18"/>
+      <c r="C52" s="17"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="15">
         <v>44781</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
@@ -1971,98 +1943,98 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14" t="s">
+      <c r="A62" s="12"/>
+      <c r="B62" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="1:3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14" t="s">
+      <c r="A65" s="12"/>
+      <c r="B65" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14" t="s">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="18"/>
+      <c r="C70" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/Reports/Bug Reports.xlsx
+++ b/Reports/Bug Reports.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12575"/>
   </bookViews>
   <sheets>
-    <sheet name="Bug 2" sheetId="3" r:id="rId1"/>
+    <sheet name="Deffects" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -172,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -201,6 +201,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -223,20 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -245,13 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -260,8 +282,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,35 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -312,36 +329,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -352,6 +352,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,7 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,37 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,37 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,67 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,11 +579,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,8 +623,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,17 +644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,191 +670,159 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B45" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/Reports/Bug Reports.xlsx
+++ b/Reports/Bug Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9335"/>
+    <workbookView windowWidth="18468" windowHeight="9335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Deffect №1" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
   <si>
     <t>Bug ID</t>
   </si>
@@ -211,11 +211,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -240,11 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -252,8 +247,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,10 +283,48 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,7 +337,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,40 +367,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,46 +381,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -397,13 +397,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,37 +445,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,121 +565,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,24 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -657,6 +639,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -668,11 +665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,197 +695,206 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -891,25 +903,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -978,15 +980,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1637665</xdr:colOff>
+      <xdr:colOff>857885</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>128270</xdr:rowOff>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3336925</xdr:colOff>
+      <xdr:colOff>2557145</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>3033395</xdr:rowOff>
+      <xdr:rowOff>2997200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1003,7 +1005,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4727575" y="3054350"/>
+          <a:off x="3947795" y="3018155"/>
           <a:ext cx="1699260" cy="2905125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1024,20 +1026,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>892175</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2585720</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2173605</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2839085</xdr:rowOff>
+      <xdr:rowOff>2854325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Изображение 1"/>
+        <xdr:cNvPr id="4" name="Изображение 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1050,7 +1052,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2317115" y="2946400"/>
+          <a:off x="2896870" y="2961640"/>
           <a:ext cx="1693545" cy="2808605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1071,20 +1073,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>221615</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1365885</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2671445</xdr:rowOff>
+      <xdr:rowOff>2679065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Изображение 1"/>
+        <xdr:cNvPr id="4" name="Изображение 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1097,7 +1099,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1669415" y="3032760"/>
+          <a:off x="2416175" y="3040380"/>
           <a:ext cx="1235710" cy="2618105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1113,20 +1115,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1882140</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2156460</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3167380</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3441700</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2668905</xdr:rowOff>
+      <xdr:rowOff>2691765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Изображение 2"/>
+        <xdr:cNvPr id="5" name="Изображение 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1139,7 +1141,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3421380" y="3002280"/>
+          <a:off x="4351020" y="3025140"/>
           <a:ext cx="1285240" cy="2646045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1160,20 +1162,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>61595</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>4062095</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>2415540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Изображение 1"/>
+        <xdr:cNvPr id="3" name="Изображение 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1186,7 +1188,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1539875" y="3145155"/>
+          <a:off x="2233295" y="3145155"/>
           <a:ext cx="4000500" cy="2300605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1463,200 +1465,204 @@
   <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="30.0555555555556" customWidth="1"/>
-    <col min="3" max="3" width="74.5092592592593" customWidth="1"/>
+    <col min="3" max="3" width="53.5925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="14">
         <v>44781</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" ht="247" customHeight="1" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="6" t="s">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1667,167 +1673,207 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="51.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="13.462962962963" customWidth="1"/>
+    <col min="2" max="2" width="21.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="39.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="5">
         <v>44781</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="28" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="28" customHeight="1" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="231" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="231" customHeight="1" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -1837,167 +1883,207 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="54.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="19.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="56.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="5">
         <v>44781</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="33" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="33" customHeight="1" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" ht="214" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="214" customHeight="1" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2007,167 +2093,207 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="59.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="60.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="5">
         <v>44781</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="37" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="37" customHeight="1" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="210" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="210" customHeight="1" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
